--- a/data/raw/sample_run_2019-03-13_CORRECTED.xlsx
+++ b/data/raw/sample_run_2019-03-13_CORRECTED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\204.46.92.163\Public\Astoria Pacific nutrient runs\Steven Shivers Cyano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Public\Astoria Pacific nutrient runs\Steven Shivers Cyano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B243D73-C035-4CEE-937E-792724764F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D94B2FF-9CEE-455B-8331-60139F9E0D9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="240">
   <si>
     <t>Run Name: sample_run_2019-03-13</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>P dup % difference</t>
+  </si>
+  <si>
+    <t>duplicate N average (uM)</t>
+  </si>
+  <si>
+    <t>duplicate P average (uM)</t>
   </si>
 </sst>
 </file>
@@ -752,7 +758,7 @@
     <numFmt numFmtId="165" formatCode="0.0000;\-0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000;\-0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -771,6 +777,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -823,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -849,9 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -868,6 +878,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1224,53 +1240,59 @@
     <col min="16" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="15" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1338,7 +1360,7 @@
         <v>196.11699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1371,7 +1393,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1404,7 +1426,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1437,7 +1459,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1470,7 +1492,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1503,7 +1525,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1536,7 +1558,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1569,7 +1591,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1602,7 +1624,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -1801,11 +1823,11 @@
       <c r="K21" s="7">
         <v>0.105</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f>((100-H21)/100)*-100</f>
         <v>-0.82699999999999818</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1841,8 +1863,8 @@
       <c r="K22" s="7">
         <v>6.2910000000000004</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="10">
+      <c r="L22" s="10"/>
+      <c r="M22" s="9">
         <f>((6.25-K22)/6.25)*-100</f>
         <v>0.65600000000000591</v>
       </c>
@@ -2001,7 +2023,7 @@
       <c r="G27" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>2.7789999999999999</v>
       </c>
       <c r="I27" s="6">
@@ -2010,7 +2032,7 @@
       <c r="J27" s="6">
         <v>0</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>0.33700000000000002</v>
       </c>
     </row>
@@ -2036,7 +2058,7 @@
       <c r="G28" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>2.9079999999999999</v>
       </c>
       <c r="I28" s="6">
@@ -2045,7 +2067,7 @@
       <c r="J28" s="6">
         <v>0</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>0.39600000000000002</v>
       </c>
     </row>
@@ -2071,7 +2093,7 @@
       <c r="G29" s="6">
         <v>0.02</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>8.7899999999999991</v>
       </c>
       <c r="I29" s="6">
@@ -2080,7 +2102,7 @@
       <c r="J29" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>6.2119999999999997</v>
       </c>
     </row>
@@ -2106,7 +2128,7 @@
       <c r="G30" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>6.508</v>
       </c>
       <c r="I30" s="6">
@@ -2115,7 +2137,7 @@
       <c r="J30" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <v>6.2549999999999999</v>
       </c>
     </row>
@@ -2285,11 +2307,11 @@
       <c r="K35" s="7">
         <v>0.47199999999999998</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <f>((100-H35)/100)*-100</f>
         <v>3.061000000000007</v>
       </c>
-      <c r="M35" s="11"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -2325,8 +2347,8 @@
       <c r="K36" s="7">
         <v>6.6020000000000003</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="10">
+      <c r="L36" s="10"/>
+      <c r="M36" s="9">
         <f>((6.25-K36)/6.25)*-100</f>
         <v>5.632000000000005</v>
       </c>
@@ -2353,7 +2375,7 @@
       <c r="G37" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>3.0550000000000002</v>
       </c>
       <c r="I37" s="6">
@@ -2362,7 +2384,7 @@
       <c r="J37" s="6">
         <v>0</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>0.45300000000000001</v>
       </c>
     </row>
@@ -2388,7 +2410,7 @@
       <c r="G38" s="6">
         <v>0.27700000000000002</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>123.005</v>
       </c>
       <c r="I38" s="6">
@@ -2397,7 +2419,7 @@
       <c r="J38" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="13">
         <v>3.282</v>
       </c>
     </row>
@@ -2423,7 +2445,7 @@
       <c r="G39" s="6">
         <v>0.29299999999999998</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>129.91300000000001</v>
       </c>
       <c r="I39" s="6">
@@ -2432,7 +2454,7 @@
       <c r="J39" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <v>3.766</v>
       </c>
     </row>
@@ -2458,7 +2480,7 @@
       <c r="G40" s="6">
         <v>0.29299999999999998</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13">
         <v>130.107</v>
       </c>
       <c r="I40" s="6">
@@ -2467,7 +2489,7 @@
       <c r="J40" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <v>3.597</v>
       </c>
     </row>
@@ -2493,7 +2515,7 @@
       <c r="G41" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>42.152000000000001</v>
       </c>
       <c r="I41" s="6">
@@ -2502,7 +2524,7 @@
       <c r="J41" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <v>0.84699999999999998</v>
       </c>
     </row>
@@ -2528,7 +2550,7 @@
       <c r="G42" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>34.720999999999997</v>
       </c>
       <c r="I42" s="6">
@@ -2537,22 +2559,22 @@
       <c r="J42" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <v>0.751</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <f>((H42-H43)/((H42+H43)/2))*100</f>
         <v>1.2636582326174535</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <f>((K42-K43)/((K42+K43)/2))*100</f>
         <v>-2.4983563445101931</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="12">
         <f>AVERAGE(H42,H43)</f>
         <v>34.503</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="12">
         <f>AVERAGE(K42,K43)</f>
         <v>0.76049999999999995</v>
       </c>
@@ -2579,7 +2601,7 @@
       <c r="G43" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <v>34.284999999999997</v>
       </c>
       <c r="I43" s="6">
@@ -2588,7 +2610,7 @@
       <c r="J43" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <v>0.77</v>
       </c>
     </row>
@@ -2614,7 +2636,7 @@
       <c r="G44" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>36.475999999999999</v>
       </c>
       <c r="I44" s="6">
@@ -2623,7 +2645,7 @@
       <c r="J44" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="13">
         <v>1.1259999999999999</v>
       </c>
     </row>
@@ -2649,7 +2671,7 @@
       <c r="G45" s="6">
         <v>0.09</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>39.898000000000003</v>
       </c>
       <c r="I45" s="6">
@@ -2658,7 +2680,7 @@
       <c r="J45" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <v>1.29</v>
       </c>
     </row>
@@ -2684,7 +2706,7 @@
       <c r="G46" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>4.1180000000000003</v>
       </c>
       <c r="I46" s="6">
@@ -2693,7 +2715,7 @@
       <c r="J46" s="6">
         <v>0</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="13">
         <v>0.52800000000000002</v>
       </c>
     </row>
@@ -2785,7 +2807,7 @@
       <c r="G49" s="6">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>40.128</v>
       </c>
       <c r="I49" s="6">
@@ -2794,7 +2816,7 @@
       <c r="J49" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="13">
         <v>1.329</v>
       </c>
     </row>
@@ -2820,7 +2842,7 @@
       <c r="G50" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>42.48</v>
       </c>
       <c r="I50" s="6">
@@ -2829,7 +2851,7 @@
       <c r="J50" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="13">
         <v>1.5780000000000001</v>
       </c>
     </row>
@@ -2855,7 +2877,7 @@
       <c r="G51" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <v>36.887999999999998</v>
       </c>
       <c r="I51" s="6">
@@ -2864,7 +2886,7 @@
       <c r="J51" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="13">
         <v>1.361</v>
       </c>
     </row>
@@ -2890,7 +2912,7 @@
       <c r="G52" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <v>36.100999999999999</v>
       </c>
       <c r="I52" s="6">
@@ -2899,7 +2921,7 @@
       <c r="J52" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="13">
         <v>1.4219999999999999</v>
       </c>
     </row>
@@ -2925,7 +2947,7 @@
       <c r="G53" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <v>34.481999999999999</v>
       </c>
       <c r="I53" s="6">
@@ -2934,7 +2956,7 @@
       <c r="J53" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="13">
         <v>1.2030000000000001</v>
       </c>
     </row>
@@ -2972,11 +2994,11 @@
       <c r="K54" s="7">
         <v>0.58599999999999997</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
         <f>((100-H54)/100)*-100</f>
         <v>2.4689999999999941</v>
       </c>
-      <c r="M54" s="11"/>
+      <c r="M54" s="10"/>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
@@ -3012,8 +3034,8 @@
       <c r="K55" s="7">
         <v>6.8559999999999999</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="10">
+      <c r="L55" s="10"/>
+      <c r="M55" s="9">
         <f>((6.25-K55)/6.25)*-100</f>
         <v>9.695999999999998</v>
       </c>
@@ -3040,7 +3062,7 @@
       <c r="G56" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>36.460999999999999</v>
       </c>
       <c r="I56" s="6">
@@ -3049,7 +3071,7 @@
       <c r="J56" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="13">
         <v>1.143</v>
       </c>
     </row>
@@ -3075,7 +3097,7 @@
       <c r="G57" s="6">
         <v>0.124</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>55.017000000000003</v>
       </c>
       <c r="I57" s="6">
@@ -3084,22 +3106,22 @@
       <c r="J57" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="13">
         <v>2.6309999999999998</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="11">
         <f>((H57-H58)/((H57+H58)/2))*100</f>
         <v>-1.5814481881869162</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="11">
         <f>((K57-K58)/((K57+K58)/2))*100</f>
         <v>0.87803015842716892</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="12">
         <f>AVERAGE(H57,H58)</f>
         <v>55.455500000000001</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="12">
         <f>AVERAGE(K57,K58)</f>
         <v>2.6194999999999999</v>
       </c>
@@ -3126,7 +3148,7 @@
       <c r="G58" s="6">
         <v>0.126</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>55.893999999999998</v>
       </c>
       <c r="I58" s="6">
@@ -3135,7 +3157,7 @@
       <c r="J58" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="13">
         <v>2.6080000000000001</v>
       </c>
     </row>
@@ -3161,7 +3183,7 @@
       <c r="G59" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>35.076999999999998</v>
       </c>
       <c r="I59" s="6">
@@ -3170,7 +3192,7 @@
       <c r="J59" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="13">
         <v>1.0469999999999999</v>
       </c>
     </row>
@@ -3196,7 +3218,7 @@
       <c r="G60" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>29.837</v>
       </c>
       <c r="I60" s="6">
@@ -3205,7 +3227,7 @@
       <c r="J60" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="13">
         <v>0.97</v>
       </c>
     </row>
@@ -3297,7 +3319,7 @@
       <c r="G63" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>30.852</v>
       </c>
       <c r="I63" s="6">
@@ -3306,7 +3328,7 @@
       <c r="J63" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="13">
         <v>1.157</v>
       </c>
     </row>
@@ -3332,7 +3354,7 @@
       <c r="G64" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>30.350999999999999</v>
       </c>
       <c r="I64" s="6">
@@ -3341,7 +3363,7 @@
       <c r="J64" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="13">
         <v>0.97599999999999998</v>
       </c>
     </row>
@@ -3367,7 +3389,7 @@
       <c r="G65" s="6">
         <v>0.01</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>4.2240000000000002</v>
       </c>
       <c r="I65" s="6">
@@ -3376,7 +3398,7 @@
       <c r="J65" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="13">
         <v>0.69</v>
       </c>
     </row>
@@ -3402,7 +3424,7 @@
       <c r="G66" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>36.616999999999997</v>
       </c>
       <c r="I66" s="6">
@@ -3411,7 +3433,7 @@
       <c r="J66" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="13">
         <v>1.0920000000000001</v>
       </c>
     </row>
@@ -3437,7 +3459,7 @@
       <c r="G67" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>33.304000000000002</v>
       </c>
       <c r="I67" s="6">
@@ -3446,7 +3468,7 @@
       <c r="J67" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="13">
         <v>0.98</v>
       </c>
     </row>
@@ -3472,7 +3494,7 @@
       <c r="G68" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>33.585999999999999</v>
       </c>
       <c r="I68" s="6">
@@ -3481,7 +3503,7 @@
       <c r="J68" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="13">
         <v>0.999</v>
       </c>
     </row>
@@ -3507,7 +3529,7 @@
       <c r="G69" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <v>29.335999999999999</v>
       </c>
       <c r="I69" s="6">
@@ -3516,7 +3538,7 @@
       <c r="J69" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="13">
         <v>1.153</v>
       </c>
     </row>
@@ -3542,7 +3564,7 @@
       <c r="G70" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>29.391999999999999</v>
       </c>
       <c r="I70" s="6">
@@ -3551,22 +3573,22 @@
       <c r="J70" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="13">
         <v>1.129</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="11">
         <f>((H70-H71)/((H70+H71)/2))*100</f>
         <v>-2.7214587018638995E-2</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="11">
         <f>((K70-K71)/((K70+K71)/2))*100</f>
         <v>-9.4514767932489523</v>
       </c>
-      <c r="P70" s="13">
+      <c r="P70" s="12">
         <f>AVERAGE(H70,H71)</f>
         <v>29.396000000000001</v>
       </c>
-      <c r="Q70" s="13">
+      <c r="Q70" s="12">
         <f>AVERAGE(K70,K71)</f>
         <v>1.1850000000000001</v>
       </c>
@@ -3593,7 +3615,7 @@
       <c r="G71" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <v>29.4</v>
       </c>
       <c r="I71" s="6">
@@ -3602,7 +3624,7 @@
       <c r="J71" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K71" s="13">
         <v>1.2410000000000001</v>
       </c>
     </row>
@@ -3628,7 +3650,7 @@
       <c r="G72" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <v>28.497</v>
       </c>
       <c r="I72" s="6">
@@ -3637,7 +3659,7 @@
       <c r="J72" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="13">
         <v>1.032</v>
       </c>
     </row>
@@ -3741,11 +3763,11 @@
       <c r="K75" s="7">
         <v>0.59499999999999997</v>
       </c>
-      <c r="L75" s="10">
+      <c r="L75" s="9">
         <f>((100-H75)/100)*-100</f>
         <v>3.0550000000000068</v>
       </c>
-      <c r="M75" s="11"/>
+      <c r="M75" s="10"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -3781,8 +3803,8 @@
       <c r="K76" s="7">
         <v>6.7709999999999999</v>
       </c>
-      <c r="L76" s="11"/>
-      <c r="M76" s="10">
+      <c r="L76" s="10"/>
+      <c r="M76" s="9">
         <f>((6.25-K76)/6.25)*-100</f>
         <v>8.3359999999999985</v>
       </c>
@@ -3809,7 +3831,7 @@
       <c r="G77" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <v>33.707000000000001</v>
       </c>
       <c r="I77" s="6">
@@ -3818,7 +3840,7 @@
       <c r="J77" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K77" s="13">
         <v>1.054</v>
       </c>
     </row>
@@ -3844,7 +3866,7 @@
       <c r="G78" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>33.493000000000002</v>
       </c>
       <c r="I78" s="6">
@@ -3853,7 +3875,7 @@
       <c r="J78" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K78" s="13">
         <v>0.81799999999999995</v>
       </c>
     </row>
@@ -3879,7 +3901,7 @@
       <c r="G79" s="6">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <v>37.085000000000001</v>
       </c>
       <c r="I79" s="6">
@@ -3888,7 +3910,7 @@
       <c r="J79" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K79" s="13">
         <v>1.04</v>
       </c>
     </row>
@@ -3914,7 +3936,7 @@
       <c r="G80" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <v>30.692</v>
       </c>
       <c r="I80" s="6">
@@ -3923,7 +3945,7 @@
       <c r="J80" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K80" s="13">
         <v>1.1639999999999999</v>
       </c>
     </row>
@@ -3949,7 +3971,7 @@
       <c r="G81" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="13">
         <v>30.265999999999998</v>
       </c>
       <c r="I81" s="6">
@@ -3958,7 +3980,7 @@
       <c r="J81" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K81" s="13">
         <v>1.171</v>
       </c>
     </row>
@@ -3984,7 +4006,7 @@
       <c r="G82" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="13">
         <v>3.6640000000000001</v>
       </c>
       <c r="I82" s="6">
@@ -3993,7 +4015,7 @@
       <c r="J82" s="6">
         <v>0</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K82" s="13">
         <v>0.629</v>
       </c>
     </row>
@@ -4019,7 +4041,7 @@
       <c r="G83" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <v>28.327000000000002</v>
       </c>
       <c r="I83" s="6">
@@ -4028,7 +4050,7 @@
       <c r="J83" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K83" s="13">
         <v>1.133</v>
       </c>
     </row>
@@ -4054,7 +4076,7 @@
       <c r="G84" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <v>32.764000000000003</v>
       </c>
       <c r="I84" s="6">
@@ -4063,7 +4085,7 @@
       <c r="J84" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K84" s="13">
         <v>0.96499999999999997</v>
       </c>
     </row>
@@ -4089,7 +4111,7 @@
       <c r="G85" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="13">
         <v>33.71</v>
       </c>
       <c r="I85" s="6">
@@ -4098,22 +4120,22 @@
       <c r="J85" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K85" s="13">
         <v>0.93200000000000005</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="11">
         <f>((H85-H86)/((H85+H86)/2))*100</f>
         <v>-5.3382366025091728E-2</v>
       </c>
-      <c r="O85" s="12">
+      <c r="O85" s="11">
         <f>((K85-K86)/((K85+K86)/2))*100</f>
         <v>-5.1228437009931973</v>
       </c>
-      <c r="P85" s="13">
+      <c r="P85" s="12">
         <f>AVERAGE(H85,H86)</f>
         <v>33.719000000000001</v>
       </c>
-      <c r="Q85" s="13">
+      <c r="Q85" s="12">
         <f>AVERAGE(K85,K86)</f>
         <v>0.95650000000000002</v>
       </c>
@@ -4140,7 +4162,7 @@
       <c r="G86" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <v>33.728000000000002</v>
       </c>
       <c r="I86" s="6">
@@ -4149,7 +4171,7 @@
       <c r="J86" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K86" s="13">
         <v>0.98099999999999998</v>
       </c>
     </row>
@@ -4241,7 +4263,7 @@
       <c r="G89" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <v>32.784999999999997</v>
       </c>
       <c r="I89" s="6">
@@ -4250,7 +4272,7 @@
       <c r="J89" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K89" s="13">
         <v>0.88</v>
       </c>
     </row>
@@ -4276,7 +4298,7 @@
       <c r="G90" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <v>25.614000000000001</v>
       </c>
       <c r="I90" s="6">
@@ -4285,7 +4307,7 @@
       <c r="J90" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K90" s="13">
         <v>0.95899999999999996</v>
       </c>
     </row>
@@ -4311,7 +4333,7 @@
       <c r="G91" s="6">
         <v>6.2E-2</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <v>27.373999999999999</v>
       </c>
       <c r="I91" s="6">
@@ -4320,7 +4342,7 @@
       <c r="J91" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K91" s="14">
+      <c r="K91" s="13">
         <v>1.23</v>
       </c>
     </row>
@@ -4346,7 +4368,7 @@
       <c r="G92" s="6">
         <v>0.06</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="13">
         <v>26.366</v>
       </c>
       <c r="I92" s="6">
@@ -4355,7 +4377,7 @@
       <c r="J92" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K92" s="14">
+      <c r="K92" s="13">
         <v>1.103</v>
       </c>
     </row>
@@ -4381,7 +4403,7 @@
       <c r="G93" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="13">
         <v>33.283000000000001</v>
       </c>
       <c r="I93" s="6">
@@ -4390,7 +4412,7 @@
       <c r="J93" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K93" s="14">
+      <c r="K93" s="13">
         <v>0.95299999999999996</v>
       </c>
     </row>
@@ -4428,11 +4450,11 @@
       <c r="K94" s="7">
         <v>0.59</v>
       </c>
-      <c r="L94" s="10">
+      <c r="L94" s="9">
         <f>((100-H94)/100)*-100</f>
         <v>2.5310000000000059</v>
       </c>
-      <c r="M94" s="11"/>
+      <c r="M94" s="10"/>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
@@ -4468,8 +4490,8 @@
       <c r="K95" s="7">
         <v>7.048</v>
       </c>
-      <c r="L95" s="11"/>
-      <c r="M95" s="10">
+      <c r="L95" s="10"/>
+      <c r="M95" s="9">
         <f>((6.25-K95)/6.25)*-100</f>
         <v>12.768000000000001</v>
       </c>
@@ -4496,7 +4518,7 @@
       <c r="G96" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="13">
         <v>32.718000000000004</v>
       </c>
       <c r="I96" s="6">
@@ -4505,7 +4527,7 @@
       <c r="J96" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K96" s="14">
+      <c r="K96" s="13">
         <v>0.96399999999999997</v>
       </c>
     </row>
@@ -4531,7 +4553,7 @@
       <c r="G97" s="6">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H97" s="14">
+      <c r="H97" s="13">
         <v>37.218000000000004</v>
       </c>
       <c r="I97" s="6">
@@ -4540,7 +4562,7 @@
       <c r="J97" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K97" s="14">
+      <c r="K97" s="13">
         <v>0.92300000000000004</v>
       </c>
     </row>
@@ -4566,7 +4588,7 @@
       <c r="G98" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>25.55</v>
       </c>
       <c r="I98" s="6">
@@ -4575,7 +4597,7 @@
       <c r="J98" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K98" s="14">
+      <c r="K98" s="13">
         <v>0.93899999999999995</v>
       </c>
     </row>
@@ -4601,7 +4623,7 @@
       <c r="G99" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>3.6120000000000001</v>
       </c>
       <c r="I99" s="6">
@@ -4610,7 +4632,7 @@
       <c r="J99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="14">
+      <c r="K99" s="13">
         <v>0.51</v>
       </c>
     </row>
@@ -4636,7 +4658,7 @@
       <c r="G100" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>25.797000000000001</v>
       </c>
       <c r="I100" s="6">
@@ -4645,22 +4667,22 @@
       <c r="J100" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K100" s="14">
+      <c r="K100" s="13">
         <v>0.92</v>
       </c>
-      <c r="N100" s="12">
+      <c r="N100" s="11">
         <f>((H100-H103)/((H100+H103)/2))*100</f>
         <v>1.6532801782259556</v>
       </c>
-      <c r="O100" s="12">
+      <c r="O100" s="11">
         <f>((K100-K103)/((K100+K103)/2))*100</f>
         <v>-11.378780112762673</v>
       </c>
-      <c r="P100" s="13">
+      <c r="P100" s="12">
         <f>AVERAGE(H100,H103)</f>
         <v>25.5855</v>
       </c>
-      <c r="Q100" s="13">
+      <c r="Q100" s="12">
         <f>AVERAGE(K100,K103)</f>
         <v>0.97550000000000003</v>
       </c>
@@ -4753,7 +4775,7 @@
       <c r="G103" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="13">
         <v>25.373999999999999</v>
       </c>
       <c r="I103" s="6">
@@ -4762,7 +4784,7 @@
       <c r="J103" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K103" s="14">
+      <c r="K103" s="13">
         <v>1.0309999999999999</v>
       </c>
     </row>
@@ -4788,7 +4810,7 @@
       <c r="G104" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <v>28.382999999999999</v>
       </c>
       <c r="I104" s="6">
@@ -4797,7 +4819,7 @@
       <c r="J104" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K104" s="14">
+      <c r="K104" s="13">
         <v>1.419</v>
       </c>
     </row>
@@ -4823,7 +4845,7 @@
       <c r="G105" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <v>40.576999999999998</v>
       </c>
       <c r="I105" s="6">
@@ -4832,7 +4854,7 @@
       <c r="J105" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K105" s="14">
+      <c r="K105" s="13">
         <v>1.1619999999999999</v>
       </c>
     </row>
@@ -4858,7 +4880,7 @@
       <c r="G106" s="6">
         <v>0.09</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="13">
         <v>39.909999999999997</v>
       </c>
       <c r="I106" s="6">
@@ -4867,7 +4889,7 @@
       <c r="J106" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K106" s="14">
+      <c r="K106" s="13">
         <v>1.51</v>
       </c>
     </row>
@@ -4893,7 +4915,7 @@
       <c r="G107" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <v>35.789000000000001</v>
       </c>
       <c r="I107" s="6">
@@ -4902,7 +4924,7 @@
       <c r="J107" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K107" s="14">
+      <c r="K107" s="13">
         <v>1.0780000000000001</v>
       </c>
     </row>
@@ -4928,7 +4950,7 @@
       <c r="G108" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="13">
         <v>27.7</v>
       </c>
       <c r="I108" s="6">
@@ -4937,7 +4959,7 @@
       <c r="J108" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K108" s="14">
+      <c r="K108" s="13">
         <v>1.1240000000000001</v>
       </c>
     </row>
@@ -4963,7 +4985,7 @@
       <c r="G109" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="H109" s="14">
+      <c r="H109" s="13">
         <v>27.832999999999998</v>
       </c>
       <c r="I109" s="6">
@@ -4972,7 +4994,7 @@
       <c r="J109" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K109" s="14">
+      <c r="K109" s="13">
         <v>1.131</v>
       </c>
     </row>
@@ -4998,7 +5020,7 @@
       <c r="G110" s="6">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H110" s="14">
+      <c r="H110" s="13">
         <v>25.965</v>
       </c>
       <c r="I110" s="6">
@@ -5007,7 +5029,7 @@
       <c r="J110" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K110" s="14">
+      <c r="K110" s="13">
         <v>0.91700000000000004</v>
       </c>
     </row>
@@ -5033,7 +5055,7 @@
       <c r="G111" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H111" s="14">
+      <c r="H111" s="13">
         <v>33.36</v>
       </c>
       <c r="I111" s="6">
@@ -5042,7 +5064,7 @@
       <c r="J111" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K111" s="14">
+      <c r="K111" s="13">
         <v>0.90700000000000003</v>
       </c>
     </row>
@@ -5068,7 +5090,7 @@
       <c r="G112" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="13">
         <v>36.97</v>
       </c>
       <c r="I112" s="6">
@@ -5077,7 +5099,7 @@
       <c r="J112" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K112" s="14">
+      <c r="K112" s="13">
         <v>1.208</v>
       </c>
     </row>
@@ -5181,11 +5203,11 @@
       <c r="K115" s="7">
         <v>0.69</v>
       </c>
-      <c r="L115" s="10">
+      <c r="L115" s="9">
         <f>((100-H115)/100)*-100</f>
         <v>1.300000000000523E-2</v>
       </c>
-      <c r="M115" s="11"/>
+      <c r="M115" s="10"/>
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
@@ -5221,8 +5243,8 @@
       <c r="K116" s="7">
         <v>6.992</v>
       </c>
-      <c r="L116" s="11"/>
-      <c r="M116" s="10">
+      <c r="L116" s="10"/>
+      <c r="M116" s="9">
         <f>((6.25-K116)/6.25)*-100</f>
         <v>11.872</v>
       </c>
@@ -5249,7 +5271,7 @@
       <c r="G117" s="6">
         <v>0.08</v>
       </c>
-      <c r="H117" s="14">
+      <c r="H117" s="13">
         <v>35.353000000000002</v>
       </c>
       <c r="I117" s="6">
@@ -5258,22 +5280,22 @@
       <c r="J117" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K117" s="14">
+      <c r="K117" s="13">
         <v>1.173</v>
       </c>
-      <c r="N117" s="12">
+      <c r="N117" s="11">
         <f>((H117-H118)/((H117+H118)/2))*100</f>
         <v>-2.4088978314330474</v>
       </c>
-      <c r="O117" s="12">
+      <c r="O117" s="11">
         <f>((K117-K118)/((K117+K118)/2))*100</f>
         <v>4.0887342322749154</v>
       </c>
-      <c r="P117" s="13">
+      <c r="P117" s="12">
         <f>AVERAGE(H117,H118)</f>
         <v>35.784000000000006</v>
       </c>
-      <c r="Q117" s="13">
+      <c r="Q117" s="12">
         <f>AVERAGE(K117,K118)</f>
         <v>1.1495</v>
       </c>
@@ -5300,7 +5322,7 @@
       <c r="G118" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="13">
         <v>36.215000000000003</v>
       </c>
       <c r="I118" s="6">
@@ -5309,7 +5331,7 @@
       <c r="J118" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K118" s="14">
+      <c r="K118" s="13">
         <v>1.1259999999999999</v>
       </c>
     </row>
@@ -5335,7 +5357,7 @@
       <c r="G119" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H119" s="13">
         <v>5.93</v>
       </c>
       <c r="I119" s="6">
@@ -5344,7 +5366,7 @@
       <c r="J119" s="6">
         <v>0</v>
       </c>
-      <c r="K119" s="14">
+      <c r="K119" s="13">
         <v>0.58199999999999996</v>
       </c>
     </row>
@@ -5448,11 +5470,11 @@
       <c r="K122" s="7">
         <v>0.48899999999999999</v>
       </c>
-      <c r="L122" s="10">
+      <c r="L122" s="9">
         <f>((100-H122)/100)*-100</f>
         <v>1.3999999999995795E-2</v>
       </c>
-      <c r="M122" s="11"/>
+      <c r="M122" s="10"/>
     </row>
     <row r="123" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
@@ -5488,8 +5510,8 @@
       <c r="K123" s="7">
         <v>6.95</v>
       </c>
-      <c r="L123" s="11"/>
-      <c r="M123" s="10">
+      <c r="L123" s="10"/>
+      <c r="M123" s="9">
         <f>((6.25-K123)/6.25)*-100</f>
         <v>11.200000000000003</v>
       </c>
